--- a/loss_in_devices/conexao_t_zeta1_cs.xlsx
+++ b/loss_in_devices/conexao_t_zeta1_cs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clayton\Videos\IC\Diagramas\Tabelas Excel\diagrama 7.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clayt\AppData\Local\Programs\Python\Python39\Lib\site-packages\DuctNet\loss_in_devices\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1DDC6F-E392-476E-97D3-08DBDE2986B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -104,6 +105,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -385,11 +389,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,8 +423,8 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1.7799999999999999E-3</v>
+      <c r="A4" s="4">
+        <v>-9.9999999999999997E-29</v>
       </c>
       <c r="B4" s="1">
         <v>-3.2151999999999998</v>
